--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H2">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I2">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J2">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N2">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O2">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P2">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q2">
-        <v>17.63901481418563</v>
+        <v>19.8185993763525</v>
       </c>
       <c r="R2">
-        <v>17.63901481418563</v>
+        <v>79.27439750540999</v>
       </c>
       <c r="S2">
-        <v>0.0003560115587304064</v>
+        <v>0.0003579813774181139</v>
       </c>
       <c r="T2">
-        <v>0.0003560115587304064</v>
+        <v>0.0002179406161357955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H3">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I3">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J3">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N3">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O3">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P3">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q3">
-        <v>3.293462544505411</v>
+        <v>4.488270520735833</v>
       </c>
       <c r="R3">
-        <v>3.293462544505411</v>
+        <v>26.929623124415</v>
       </c>
       <c r="S3">
-        <v>6.647257493919822E-05</v>
+        <v>8.107118130432867E-05</v>
       </c>
       <c r="T3">
-        <v>6.647257493919822E-05</v>
+        <v>7.403473051484552E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H4">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I4">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J4">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N4">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O4">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P4">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q4">
-        <v>19.56536238279927</v>
+        <v>28.36358637015</v>
       </c>
       <c r="R4">
-        <v>19.56536238279927</v>
+        <v>170.1815182209</v>
       </c>
       <c r="S4">
-        <v>0.0003948913945819607</v>
+        <v>0.000512328622446409</v>
       </c>
       <c r="T4">
-        <v>0.0003948913945819607</v>
+        <v>0.0004678618331152491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H5">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I5">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J5">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N5">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O5">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P5">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q5">
-        <v>24.85235130251194</v>
+        <v>26.9280839889925</v>
       </c>
       <c r="R5">
-        <v>24.85235130251194</v>
+        <v>161.568503933955</v>
       </c>
       <c r="S5">
-        <v>0.0005015996878809477</v>
+        <v>0.0004863992865768466</v>
       </c>
       <c r="T5">
-        <v>0.0005015996878809477</v>
+        <v>0.0004441829948073944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H6">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I6">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J6">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N6">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O6">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P6">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q6">
-        <v>8.935242579822296</v>
+        <v>9.449107543825001</v>
       </c>
       <c r="R6">
-        <v>8.935242579822296</v>
+        <v>56.69464526295</v>
       </c>
       <c r="S6">
-        <v>0.0001803416841579255</v>
+        <v>0.0001706782840540426</v>
       </c>
       <c r="T6">
-        <v>0.0001803416841579255</v>
+        <v>0.000155864520059764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H7">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I7">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J7">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N7">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O7">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P7">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q7">
-        <v>224.758876564026</v>
+        <v>236.264129340365</v>
       </c>
       <c r="R7">
-        <v>224.758876564026</v>
+        <v>945.05651736146</v>
       </c>
       <c r="S7">
-        <v>0.004536350744470315</v>
+        <v>0.004267615326876919</v>
       </c>
       <c r="T7">
-        <v>0.004536350744470315</v>
+        <v>0.002598142731552766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H8">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I8">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J8">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N8">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O8">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P8">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q8">
-        <v>2821.741511631953</v>
+        <v>3226.704441020272</v>
       </c>
       <c r="R8">
-        <v>2821.741511631953</v>
+        <v>19360.22664612163</v>
       </c>
       <c r="S8">
-        <v>0.0569517404726305</v>
+        <v>0.05828363944304985</v>
       </c>
       <c r="T8">
-        <v>0.0569517404726305</v>
+        <v>0.05322499894744007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H9">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I9">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J9">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N9">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O9">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P9">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q9">
-        <v>526.8604894737131</v>
+        <v>730.7439918806244</v>
       </c>
       <c r="R9">
-        <v>526.8604894737131</v>
+        <v>6576.695926925619</v>
       </c>
       <c r="S9">
-        <v>0.01063372450598292</v>
+        <v>0.01319935560459276</v>
       </c>
       <c r="T9">
-        <v>0.01063372450598292</v>
+        <v>0.01808060619261257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H10">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I10">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J10">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N10">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O10">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P10">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q10">
-        <v>3129.902424100655</v>
+        <v>4617.930276799861</v>
       </c>
       <c r="R10">
-        <v>3129.902424100655</v>
+        <v>41561.37249119874</v>
       </c>
       <c r="S10">
-        <v>0.06317141021855856</v>
+        <v>0.08341321250391386</v>
       </c>
       <c r="T10">
-        <v>0.06317141021855856</v>
+        <v>0.1142602329782829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H11">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I11">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J11">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N11">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O11">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P11">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q11">
-        <v>3975.67052756036</v>
+        <v>4384.213361673008</v>
       </c>
       <c r="R11">
-        <v>3975.67052756036</v>
+        <v>39457.92025505706</v>
       </c>
       <c r="S11">
-        <v>0.08024170717159453</v>
+        <v>0.07919160725249262</v>
       </c>
       <c r="T11">
-        <v>0.08024170717159453</v>
+        <v>0.1084774368829149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H12">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I12">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J12">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N12">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O12">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P12">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q12">
-        <v>1429.385097160258</v>
+        <v>1538.42744869843</v>
       </c>
       <c r="R12">
-        <v>1429.385097160258</v>
+        <v>13845.84703828587</v>
       </c>
       <c r="S12">
-        <v>0.02884954867529154</v>
+        <v>0.02778846106551941</v>
       </c>
       <c r="T12">
-        <v>0.02884954867529154</v>
+        <v>0.0380649053086789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H13">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I13">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J13">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N13">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O13">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P13">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q13">
-        <v>35955.03823708053</v>
+        <v>38466.61920549153</v>
       </c>
       <c r="R13">
-        <v>35955.03823708053</v>
+        <v>230799.7152329492</v>
       </c>
       <c r="S13">
-        <v>0.7256873097413622</v>
+        <v>0.69481869360711</v>
       </c>
       <c r="T13">
-        <v>0.7256873097413622</v>
+        <v>0.6345129540518095</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H14">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I14">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J14">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N14">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O14">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P14">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q14">
-        <v>3.857798202442831</v>
+        <v>1.207154442972</v>
       </c>
       <c r="R14">
-        <v>3.857798202442831</v>
+        <v>7.242926657832</v>
       </c>
       <c r="S14">
-        <v>7.786266782963985E-05</v>
+        <v>2.180470991139461E-05</v>
       </c>
       <c r="T14">
-        <v>7.786266782963985E-05</v>
+        <v>1.991220303284625E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H15">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I15">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J15">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N15">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O15">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P15">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q15">
-        <v>0.7203074558216115</v>
+        <v>0.2733813625008889</v>
       </c>
       <c r="R15">
-        <v>0.7203074558216115</v>
+        <v>2.460432262508</v>
       </c>
       <c r="S15">
-        <v>1.45381010682044E-05</v>
+        <v>4.938060195377968E-06</v>
       </c>
       <c r="T15">
-        <v>1.45381010682044E-05</v>
+        <v>6.764203073442325E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H16">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I16">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J16">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N16">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O16">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P16">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q16">
-        <v>4.279106323432746</v>
+        <v>1.72763113352</v>
       </c>
       <c r="R16">
-        <v>4.279106323432746</v>
+        <v>15.54868020168</v>
       </c>
       <c r="S16">
-        <v>8.636600899916897E-05</v>
+        <v>3.120602829208261E-05</v>
       </c>
       <c r="T16">
-        <v>8.636600899916897E-05</v>
+        <v>4.274632226654673E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H17">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I17">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J17">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N17">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O17">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P17">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q17">
-        <v>5.435414460007344</v>
+        <v>1.640194425990667</v>
       </c>
       <c r="R17">
-        <v>5.435414460007344</v>
+        <v>14.761749833916</v>
       </c>
       <c r="S17">
-        <v>0.0001097039939383</v>
+        <v>2.962666779319673E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001097039939383</v>
+        <v>4.058289883346734E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H18">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I18">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J18">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N18">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O18">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P18">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q18">
-        <v>1.954211339235759</v>
+        <v>0.5755468354266667</v>
       </c>
       <c r="R18">
-        <v>1.954211339235759</v>
+        <v>5.179921518840001</v>
       </c>
       <c r="S18">
-        <v>3.944221558283658E-05</v>
+        <v>1.039604489712402E-05</v>
       </c>
       <c r="T18">
-        <v>3.944221558283658E-05</v>
+        <v>1.424060381252363E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H19">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I19">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J19">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N19">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O19">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P19">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q19">
-        <v>49.15662235820857</v>
+        <v>14.39089049796533</v>
       </c>
       <c r="R19">
-        <v>49.15662235820857</v>
+        <v>86.34534298779201</v>
       </c>
       <c r="S19">
-        <v>0.0009921373688962314</v>
+        <v>0.0002599412150629492</v>
       </c>
       <c r="T19">
-        <v>0.0009921373688962314</v>
+        <v>0.0002373800097305281</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H20">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I20">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J20">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N20">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O20">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P20">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q20">
-        <v>29.70648205969172</v>
+        <v>4.337913771749999</v>
       </c>
       <c r="R20">
-        <v>29.70648205969172</v>
+        <v>26.0274826305</v>
       </c>
       <c r="S20">
-        <v>0.0005995715233462134</v>
+        <v>7.83553023926089E-05</v>
       </c>
       <c r="T20">
-        <v>0.0005995715233462134</v>
+        <v>7.155457221315084E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H21">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I21">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J21">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N21">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O21">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P21">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q21">
-        <v>5.546635513562476</v>
+        <v>0.9823968956388889</v>
       </c>
       <c r="R21">
-        <v>5.546635513562476</v>
+        <v>8.841572060749998</v>
       </c>
       <c r="S21">
-        <v>0.0001119487894133827</v>
+        <v>1.774493682392671E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001119487894133827</v>
+        <v>2.430718773229892E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H22">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I22">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J22">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N22">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O22">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P22">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q22">
-        <v>32.95071140529727</v>
+        <v>6.208248604999999</v>
       </c>
       <c r="R22">
-        <v>32.95071140529727</v>
+        <v>55.87423744499999</v>
       </c>
       <c r="S22">
-        <v>0.0006650504153577502</v>
+        <v>0.0001121389733334935</v>
       </c>
       <c r="T22">
-        <v>0.0006650504153577502</v>
+        <v>0.0001536090606560587</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H23">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I23">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J23">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N23">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O23">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P23">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q23">
-        <v>41.8547144433198</v>
+        <v>5.894044486416666</v>
       </c>
       <c r="R23">
-        <v>41.8547144433198</v>
+        <v>53.04640037774999</v>
       </c>
       <c r="S23">
-        <v>0.0008447615859588067</v>
+        <v>0.0001064635357798631</v>
       </c>
       <c r="T23">
-        <v>0.0008447615859588067</v>
+        <v>0.0001458347908771424</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H24">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I24">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J24">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N24">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O24">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P24">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q24">
-        <v>15.04815468395758</v>
+        <v>2.068229594166667</v>
       </c>
       <c r="R24">
-        <v>15.04815468395758</v>
+        <v>18.6140663475</v>
       </c>
       <c r="S24">
-        <v>0.0003037197406707515</v>
+        <v>3.735822420529467E-05</v>
       </c>
       <c r="T24">
-        <v>0.0003037197406707515</v>
+        <v>5.11736603017371E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H25">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I25">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J25">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N25">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O25">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P25">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q25">
-        <v>378.5242886148096</v>
+        <v>51.71371603883333</v>
       </c>
       <c r="R25">
-        <v>378.5242886148096</v>
+        <v>310.282296233</v>
       </c>
       <c r="S25">
-        <v>0.007639827021331194</v>
+        <v>0.0009340996781578763</v>
       </c>
       <c r="T25">
-        <v>0.007639827021331194</v>
+        <v>0.0008530259067870503</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H26">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I26">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J26">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N26">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O26">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P26">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q26">
-        <v>49.51810085376457</v>
+        <v>36.608521266456</v>
       </c>
       <c r="R26">
-        <v>49.51810085376457</v>
+        <v>219.651127598736</v>
       </c>
       <c r="S26">
-        <v>0.0009994331574652688</v>
+        <v>0.0006612560564619558</v>
       </c>
       <c r="T26">
-        <v>0.0009994331574652688</v>
+        <v>0.0006038633353287089</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H27">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I27">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J27">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N27">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O27">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P27">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q27">
-        <v>9.245755058029555</v>
+        <v>8.290643737620444</v>
       </c>
       <c r="R27">
-        <v>9.245755058029555</v>
+        <v>74.61579363858399</v>
       </c>
       <c r="S27">
-        <v>0.0001866088159981292</v>
+        <v>0.0001497530682424265</v>
       </c>
       <c r="T27">
-        <v>0.0001866088159981292</v>
+        <v>0.0002051332151460955</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H28">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I28">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J28">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N28">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O28">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P28">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q28">
-        <v>54.9259467106262</v>
+        <v>52.39265071696</v>
       </c>
       <c r="R28">
-        <v>54.9259467106262</v>
+        <v>471.53385645264</v>
       </c>
       <c r="S28">
-        <v>0.001108580729093065</v>
+        <v>0.0009463632073123489</v>
       </c>
       <c r="T28">
-        <v>0.001108580729093065</v>
+        <v>0.001296337562163912</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H29">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I29">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J29">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N29">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O29">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P29">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q29">
-        <v>69.76813904942519</v>
+        <v>49.74101936548534</v>
       </c>
       <c r="R29">
-        <v>69.76813904942519</v>
+        <v>447.669174289368</v>
       </c>
       <c r="S29">
-        <v>0.001408143492953484</v>
+        <v>0.000898467055541978</v>
       </c>
       <c r="T29">
-        <v>0.001408143492953484</v>
+        <v>0.001230728945785674</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H30">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I30">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J30">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N30">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O30">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P30">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q30">
-        <v>25.08395439776264</v>
+        <v>17.45420288781333</v>
       </c>
       <c r="R30">
-        <v>25.08395439776264</v>
+        <v>157.08782599032</v>
       </c>
       <c r="S30">
-        <v>0.0005062741767804455</v>
+        <v>0.0003152735202352427</v>
       </c>
       <c r="T30">
-        <v>0.0005062741767804455</v>
+        <v>0.0004318647465144921</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.51036533333333</v>
+      </c>
+      <c r="H31">
+        <v>34.531096</v>
+      </c>
+      <c r="I31">
+        <v>0.01085416677473077</v>
+      </c>
+      <c r="J31">
+        <v>0.0109667839124114</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>37.915598</v>
+      </c>
+      <c r="N31">
+        <v>75.83119600000001</v>
+      </c>
+      <c r="O31">
+        <v>0.7262698307979842</v>
+      </c>
+      <c r="P31">
+        <v>0.6564236302062433</v>
+      </c>
+      <c r="Q31">
+        <v>436.4223848118027</v>
+      </c>
+      <c r="R31">
+        <v>2618.534308870816</v>
+      </c>
+      <c r="S31">
+        <v>0.00788305386693682</v>
+      </c>
+      <c r="T31">
+        <v>0.00719885610747252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>26.4379255</v>
+      </c>
+      <c r="H32">
+        <v>52.875851</v>
+      </c>
+      <c r="I32">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J32">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.180483</v>
+      </c>
+      <c r="N32">
+        <v>6.360966</v>
+      </c>
+      <c r="O32">
+        <v>0.06092186256078212</v>
+      </c>
+      <c r="P32">
+        <v>0.05506293733437207</v>
+      </c>
+      <c r="Q32">
+        <v>84.08537260801651</v>
+      </c>
+      <c r="R32">
+        <v>336.3414904320661</v>
+      </c>
+      <c r="S32">
+        <v>0.001518825671548188</v>
+      </c>
+      <c r="T32">
+        <v>0.0009246676602214956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>26.4379255</v>
+      </c>
+      <c r="H33">
+        <v>52.875851</v>
+      </c>
+      <c r="I33">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J33">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.7202763333333334</v>
+      </c>
+      <c r="N33">
+        <v>2.160829</v>
+      </c>
+      <c r="O33">
+        <v>0.01379682764696979</v>
+      </c>
+      <c r="P33">
+        <v>0.01870495641971579</v>
+      </c>
+      <c r="Q33">
+        <v>19.04261204007984</v>
+      </c>
+      <c r="R33">
+        <v>114.255672240479</v>
+      </c>
+      <c r="S33">
+        <v>0.0003439647958109717</v>
+      </c>
+      <c r="T33">
+        <v>0.0003141108906365408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>26.4379255</v>
+      </c>
+      <c r="H34">
+        <v>52.875851</v>
+      </c>
+      <c r="I34">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J34">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.55178</v>
+      </c>
+      <c r="N34">
+        <v>13.65534</v>
+      </c>
+      <c r="O34">
+        <v>0.08718893185938011</v>
+      </c>
+      <c r="P34">
+        <v>0.1182058087874616</v>
+      </c>
+      <c r="Q34">
+        <v>120.33962053239</v>
+      </c>
+      <c r="R34">
+        <v>722.0377231943401</v>
+      </c>
+      <c r="S34">
+        <v>0.002173682524081912</v>
+      </c>
+      <c r="T34">
+        <v>0.001985021030976899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>26.4379255</v>
+      </c>
+      <c r="H35">
+        <v>52.875851</v>
+      </c>
+      <c r="I35">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J35">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.321411</v>
+      </c>
+      <c r="N35">
+        <v>12.964233</v>
+      </c>
+      <c r="O35">
+        <v>0.08277623461928645</v>
+      </c>
+      <c r="P35">
+        <v>0.1122233241408928</v>
+      </c>
+      <c r="Q35">
+        <v>114.2491420728805</v>
+      </c>
+      <c r="R35">
+        <v>685.494852437283</v>
+      </c>
+      <c r="S35">
+        <v>0.00206367082110193</v>
+      </c>
+      <c r="T35">
+        <v>0.001884557627674209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>16.6501541873884</v>
-      </c>
-      <c r="H31">
-        <v>16.6501541873884</v>
-      </c>
-      <c r="I31">
-        <v>0.01694396213742651</v>
-      </c>
-      <c r="J31">
-        <v>0.01694396213742651</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>37.8955529209752</v>
-      </c>
-      <c r="N31">
-        <v>37.8955529209752</v>
-      </c>
-      <c r="O31">
-        <v>0.7515905466411961</v>
-      </c>
-      <c r="P31">
-        <v>0.7515905466411961</v>
-      </c>
-      <c r="Q31">
-        <v>630.9667991505738</v>
-      </c>
-      <c r="R31">
-        <v>630.9667991505738</v>
-      </c>
-      <c r="S31">
-        <v>0.01273492176513612</v>
-      </c>
-      <c r="T31">
-        <v>0.01273492176513612</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>26.4379255</v>
+      </c>
+      <c r="H36">
+        <v>52.875851</v>
+      </c>
+      <c r="I36">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J36">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.51639</v>
+      </c>
+      <c r="N36">
+        <v>4.54917</v>
+      </c>
+      <c r="O36">
+        <v>0.02904631251559728</v>
+      </c>
+      <c r="P36">
+        <v>0.03937934311131445</v>
+      </c>
+      <c r="Q36">
+        <v>40.090205848945</v>
+      </c>
+      <c r="R36">
+        <v>240.54123509367</v>
+      </c>
+      <c r="S36">
+        <v>0.0007241453766861692</v>
+      </c>
+      <c r="T36">
+        <v>0.0006612942719470316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>26.4379255</v>
+      </c>
+      <c r="H37">
+        <v>52.875851</v>
+      </c>
+      <c r="I37">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J37">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>37.915598</v>
+      </c>
+      <c r="N37">
+        <v>75.83119600000001</v>
+      </c>
+      <c r="O37">
+        <v>0.7262698307979842</v>
+      </c>
+      <c r="P37">
+        <v>0.6564236302062433</v>
+      </c>
+      <c r="Q37">
+        <v>1002.409755211949</v>
+      </c>
+      <c r="R37">
+        <v>4009.639020847796</v>
+      </c>
+      <c r="S37">
+        <v>0.01810642710383962</v>
+      </c>
+      <c r="T37">
+        <v>0.01102327139889093</v>
       </c>
     </row>
   </sheetData>
